--- a/Udrea_Bianca/Lab1.xlsx
+++ b/Udrea_Bianca/Lab1.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="128" windowWidth="18210" windowHeight="8453"/>
+    <workbookView xWindow="480" yWindow="132" windowWidth="18216" windowHeight="8448"/>
   </bookViews>
   <sheets>
     <sheet name="Foaie1" sheetId="1" r:id="rId1"/>
     <sheet name="Foaie2" sheetId="2" r:id="rId2"/>
     <sheet name="Foaie3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>No</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>With 8 threads</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -86,7 +89,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="ro-RO"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -343,11 +346,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148162816"/>
-        <c:axId val="148173184"/>
+        <c:axId val="188487936"/>
+        <c:axId val="188489728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148162816"/>
+        <c:axId val="188487936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -356,7 +359,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148173184"/>
+        <c:crossAx val="188489728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -364,7 +367,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148173184"/>
+        <c:axId val="188489728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -375,7 +378,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148162816"/>
+        <c:crossAx val="188487936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -433,7 +436,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Temă Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -719,22 +722,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" customWidth="1"/>
-    <col min="3" max="3" width="12.86328125" customWidth="1"/>
-    <col min="4" max="4" width="12.796875" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -751,7 +754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -768,7 +771,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -785,7 +788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -802,7 +805,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -819,7 +822,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -836,7 +839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -853,7 +856,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -870,7 +873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -887,7 +890,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -904,7 +907,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -919,6 +922,11 @@
       </c>
       <c r="E11">
         <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -933,7 +941,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -945,7 +953,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
